--- a/biology/Médecine/Régime_BRATT/Régime_BRATT.xlsx
+++ b/biology/Médecine/Régime_BRATT/Régime_BRATT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_BRATT</t>
+          <t>Régime_BRATT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le régime dit BRAT, ou BRATT, était un régime alimentaire conseillé en accompagnement du traitement des entérites, diarrhées ou encore gastro-entérites. Composé d'aliments présumés faciles à digérer, peu gras et faibles en fibres.
 Il consiste, selon les variantes, à se nourrir de
@@ -490,7 +502,7 @@
 thé
 pain grillé ou biscottes
 Il tient son nom de l'anglais bananas, rice, applesauce, tea and toast. Le régime peut aussi s'accompagner de yaourt en fonction du problème digestif de départ.
-Cette diète de réalimentation a été longuement recommandée quoique sans fondement scientifique. Les études plus récentes démontrent qu'elle est inutilement restrictive. Les Centres pour la Prévention et le Contrôle des Maladies américains la déconseillent formellement[1]. Au contraire, une réalimentation rapide résulte en une atténuation plus rapide des diarrhées[2].
+Cette diète de réalimentation a été longuement recommandée quoique sans fondement scientifique. Les études plus récentes démontrent qu'elle est inutilement restrictive. Les Centres pour la Prévention et le Contrôle des Maladies américains la déconseillent formellement. Au contraire, une réalimentation rapide résulte en une atténuation plus rapide des diarrhées.
 </t>
         </is>
       </c>
